--- a/Doc/Factor_Finance.xlsx
+++ b/Doc/Factor_Finance.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B076B8A0-99B2-43E7-999D-EB608C390B46}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A693AFA-1348-4E55-9011-503E85DED905}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
   <si>
     <t>盈利能力</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>净利润(含少数股东损益) / (营业收入 - 其他业务收入)</t>
+  </si>
+  <si>
+    <t>NIMP</t>
   </si>
 </sst>
 </file>
@@ -487,19 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,11 +511,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -803,7 +803,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,686 +837,694 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0.8</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="4" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4" t="s">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4" t="s">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4" t="s">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4" t="s">
+      <c r="A55" s="14"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4" t="s">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4" t="s">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A11:A20"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A33:A44"/>
     <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A11:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" display="https://zhuanlan.zhihu.com/p/25241488" xr:uid="{2BDA0F91-B32A-42CD-8CDB-E8D5E8D8F87B}"/>
